--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Pspn-Gfra1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G2">
+        <v>1.863243333333333</v>
+      </c>
+      <c r="H2">
+        <v>5.589729999999999</v>
+      </c>
+      <c r="I2">
+        <v>0.6067417803684044</v>
+      </c>
+      <c r="J2">
+        <v>0.6067417803684044</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G2">
-        <v>0.5494479999999999</v>
-      </c>
-      <c r="H2">
-        <v>1.648344</v>
-      </c>
-      <c r="I2">
-        <v>0.3828338564458972</v>
-      </c>
-      <c r="J2">
-        <v>0.3828338564458972</v>
-      </c>
-      <c r="K2">
-        <v>2</v>
-      </c>
-      <c r="L2">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M2">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N2">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O2">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P2">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q2">
-        <v>0.1863934574746667</v>
+        <v>0.06069266725888888</v>
       </c>
       <c r="R2">
-        <v>1.677541117272</v>
+        <v>0.54623400533</v>
       </c>
       <c r="S2">
-        <v>0.005340089957660904</v>
+        <v>0.0007449536469879984</v>
       </c>
       <c r="T2">
-        <v>0.005340089957660903</v>
+        <v>0.0007449536469879984</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>25</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H3">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I3">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J3">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>60.985497</v>
       </c>
       <c r="O3">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P3">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q3">
-        <v>11.169453118552</v>
+        <v>37.87694023842332</v>
       </c>
       <c r="R3">
-        <v>100.525078066968</v>
+        <v>340.8924621458099</v>
       </c>
       <c r="S3">
-        <v>0.3199998821796116</v>
+        <v>0.464908959215784</v>
       </c>
       <c r="T3">
-        <v>0.3199998821796116</v>
+        <v>0.464908959215784</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5494479999999999</v>
+        <v>1.863243333333333</v>
       </c>
       <c r="H4">
-        <v>1.648344</v>
+        <v>5.589729999999999</v>
       </c>
       <c r="I4">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="J4">
-        <v>0.3828338564458972</v>
+        <v>0.6067417803684044</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N4">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O4">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P4">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q4">
-        <v>2.00679838072</v>
+        <v>11.49467356983555</v>
       </c>
       <c r="R4">
-        <v>18.06118542648</v>
+        <v>103.45206212852</v>
       </c>
       <c r="S4">
-        <v>0.05749388430862465</v>
+        <v>0.1410878675056324</v>
       </c>
       <c r="T4">
-        <v>0.05749388430862464</v>
+        <v>0.1410878675056324</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.9841983333333334</v>
+      </c>
+      <c r="H5">
+        <v>2.952595</v>
+      </c>
+      <c r="I5">
+        <v>0.3204918210730839</v>
+      </c>
+      <c r="J5">
+        <v>0.3204918210730839</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G5">
-        <v>0.2259343333333333</v>
-      </c>
-      <c r="H5">
-        <v>0.6778029999999999</v>
-      </c>
-      <c r="I5">
-        <v>0.1574221985220309</v>
-      </c>
-      <c r="J5">
-        <v>0.1574221985220309</v>
-      </c>
-      <c r="K5">
-        <v>2</v>
-      </c>
-      <c r="L5">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M5">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N5">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O5">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P5">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q5">
-        <v>0.0766454360598889</v>
+        <v>0.03205894844388889</v>
       </c>
       <c r="R5">
-        <v>0.689808924539</v>
+        <v>0.288530535995</v>
       </c>
       <c r="S5">
-        <v>0.002195857778214034</v>
+        <v>0.0003934977920809287</v>
       </c>
       <c r="T5">
-        <v>0.002195857778214034</v>
+        <v>0.0003934977920809286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,22 +779,22 @@
         <v>25</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2259343333333333</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H6">
-        <v>0.6778029999999999</v>
+        <v>2.952595</v>
       </c>
       <c r="I6">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J6">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,22 +809,22 @@
         <v>60.985497</v>
       </c>
       <c r="O6">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P6">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q6">
-        <v>4.592905869232332</v>
+        <v>20.00727483496833</v>
       </c>
       <c r="R6">
-        <v>41.33615282309099</v>
+        <v>180.065473514715</v>
       </c>
       <c r="S6">
-        <v>0.1315847178386231</v>
+        <v>0.2455731973522385</v>
       </c>
       <c r="T6">
-        <v>0.1315847178386231</v>
+        <v>0.2455731973522385</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,22 +841,22 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.2259343333333333</v>
+        <v>0.9841983333333334</v>
       </c>
       <c r="H7">
-        <v>0.6778029999999999</v>
+        <v>2.952595</v>
       </c>
       <c r="I7">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="J7">
-        <v>0.1574221985220309</v>
+        <v>0.3204918210730839</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N7">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O7">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P7">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q7">
-        <v>0.8252002997233333</v>
+        <v>6.071691424975556</v>
       </c>
       <c r="R7">
-        <v>7.426802697509999</v>
+        <v>54.64522282478</v>
       </c>
       <c r="S7">
-        <v>0.02364162290519377</v>
+        <v>0.07452512592876452</v>
       </c>
       <c r="T7">
-        <v>0.02364162290519376</v>
+        <v>0.07452512592876451</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,46 +909,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.6598303333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H8">
-        <v>1.979491</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I8">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J8">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.3392376666666667</v>
+        <v>0.03257366666666667</v>
       </c>
       <c r="N8">
-        <v>1.017713</v>
+        <v>0.097721</v>
       </c>
       <c r="O8">
-        <v>0.01394884456468018</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="P8">
-        <v>0.01394884456468017</v>
+        <v>0.001227793554179957</v>
       </c>
       <c r="Q8">
-        <v>0.2238393026758889</v>
+        <v>0.00727885726388889</v>
       </c>
       <c r="R8">
-        <v>2.014553724083</v>
+        <v>0.06550971537500001</v>
       </c>
       <c r="S8">
-        <v>0.006412896828805238</v>
+        <v>8.934211511103031E-05</v>
       </c>
       <c r="T8">
-        <v>0.006412896828805237</v>
+        <v>8.934211511103031E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.6598303333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H9">
-        <v>1.979491</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I9">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J9">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,22 +995,22 @@
         <v>60.985497</v>
       </c>
       <c r="O9">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512358</v>
       </c>
       <c r="P9">
-        <v>0.8358714277529804</v>
+        <v>0.7662385783512359</v>
       </c>
       <c r="Q9">
-        <v>13.41336027133633</v>
+        <v>4.542572505708333</v>
       </c>
       <c r="R9">
-        <v>120.720242442027</v>
+        <v>40.883152551375</v>
       </c>
       <c r="S9">
-        <v>0.3842868277347457</v>
+        <v>0.05575642178321336</v>
       </c>
       <c r="T9">
-        <v>0.3842868277347457</v>
+        <v>0.05575642178321336</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.6598303333333333</v>
+        <v>0.2234583333333333</v>
       </c>
       <c r="H10">
-        <v>1.979491</v>
+        <v>0.6703750000000001</v>
       </c>
       <c r="I10">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="J10">
-        <v>0.4597439450320719</v>
+        <v>0.07276639855851162</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.65239</v>
+        <v>6.169174666666667</v>
       </c>
       <c r="N10">
-        <v>10.95717</v>
+        <v>18.507524</v>
       </c>
       <c r="O10">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="P10">
-        <v>0.1501797276823394</v>
+        <v>0.2325336280945842</v>
       </c>
       <c r="Q10">
-        <v>2.409957711163333</v>
+        <v>1.378553489055556</v>
       </c>
       <c r="R10">
-        <v>21.68961940047</v>
+        <v>12.4069814015</v>
       </c>
       <c r="S10">
-        <v>0.06904422046852096</v>
+        <v>0.01692063466018723</v>
       </c>
       <c r="T10">
-        <v>0.06904422046852095</v>
+        <v>0.01692063466018723</v>
       </c>
     </row>
   </sheetData>
